--- a/questionnaires/RBDstandardized_questionnaire_MAD_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaire_MAD_FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063307A6-2930-41D5-8C0D-D933D1762AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE1E96C-A5E2-4E62-B27F-004D52FF751D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="settings" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$S$1:$S$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$R$1:$R$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$T$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
   <si>
     <t>type</t>
   </si>
@@ -150,9 +150,6 @@
     <t>PCIYCBreastF</t>
   </si>
   <si>
-    <t>label::English</t>
-  </si>
-  <si>
     <t>label::Francais</t>
   </si>
   <si>
@@ -330,9 +327,6 @@
     <t>Nom et prénom de l'enfant (No ${PCMAD_childnumber})</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>standardized_MADquestionnaire</t>
   </si>
   <si>
@@ -360,15 +354,9 @@
     <t>0</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>Féminin</t>
   </si>
   <si>
@@ -391,9 +379,6 @@
   </si>
   <si>
     <t>Yesnodk</t>
-  </si>
-  <si>
-    <t>Don't know</t>
   </si>
   <si>
     <t xml:space="preserve">Non </t>
@@ -422,6 +407,9 @@
   </si>
   <si>
     <t xml:space="preserve">aliments fortifiés </t>
+  </si>
+  <si>
+    <t>Sexe de ${MAD_name}</t>
   </si>
 </sst>
 </file>
@@ -431,7 +419,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,11 +495,6 @@
       <i/>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Palatino Linotype"/>
       <family val="1"/>
     </font>
     <font>
@@ -667,21 +650,21 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -696,49 +679,49 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,30 +731,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -797,33 +780,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,9 +1129,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T171"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:IV15"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -1201,10 +1181,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>32</v>
@@ -1251,10 +1231,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -1262,7 +1242,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -1273,13 +1253,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
@@ -1287,10 +1267,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -1299,17 +1279,17 @@
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="J7" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1317,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
@@ -1337,10 +1317,10 @@
         <v>27</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
@@ -1354,21 +1334,25 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="17"/>
+        <v>98</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="L10" s="19"/>
+      <c r="L10" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
@@ -1377,13 +1361,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>88</v>
-      </c>
       <c r="D11" s="55" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -1394,23 +1378,23 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:20" s="60" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="61" t="s">
-        <v>92</v>
+      <c r="H12" s="60" t="s">
+        <v>91</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>30</v>
@@ -1422,20 +1406,20 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" spans="1:20" s="60" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="D13" s="18"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="L13" s="19"/>
@@ -1444,13 +1428,13 @@
     </row>
     <row r="14" spans="1:20" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B14" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D14" s="39"/>
       <c r="F14" s="37"/>
@@ -1469,10 +1453,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D15" s="18"/>
       <c r="F15" s="15" t="s">
@@ -1493,10 +1477,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="18"/>
       <c r="F16" s="32"/>
@@ -1515,10 +1499,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="18"/>
       <c r="F17" s="32"/>
@@ -1537,10 +1521,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="18"/>
       <c r="F18" s="32"/>
@@ -1559,10 +1543,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="18"/>
       <c r="F19" s="32"/>
@@ -1600,13 +1584,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>21</v>
@@ -1621,16 +1605,16 @@
     </row>
     <row r="22" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>121</v>
+        <v>39</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -1645,16 +1629,16 @@
     </row>
     <row r="23" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="59" t="s">
-        <v>121</v>
+        <v>40</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -1669,16 +1653,16 @@
     </row>
     <row r="24" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>121</v>
+      <c r="D24" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1693,16 +1677,16 @@
     </row>
     <row r="25" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>121</v>
+        <v>45</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1717,16 +1701,16 @@
     </row>
     <row r="26" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>121</v>
+        <v>47</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -1741,16 +1725,16 @@
     </row>
     <row r="27" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>121</v>
+        <v>62</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -1765,16 +1749,16 @@
     </row>
     <row r="28" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>121</v>
+        <v>63</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -1789,16 +1773,16 @@
     </row>
     <row r="29" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>121</v>
+        <v>64</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -1813,16 +1797,16 @@
     </row>
     <row r="30" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>121</v>
+        <v>65</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -1837,16 +1821,16 @@
     </row>
     <row r="31" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>121</v>
+        <v>66</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -1861,16 +1845,16 @@
     </row>
     <row r="32" spans="1:16" s="49" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="59" t="s">
-        <v>121</v>
+        <v>67</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -1885,16 +1869,16 @@
     </row>
     <row r="33" spans="1:16" s="49" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="59" t="s">
-        <v>121</v>
+        <v>68</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -1909,16 +1893,16 @@
     </row>
     <row r="34" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="59" t="s">
-        <v>121</v>
+        <v>69</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -1933,16 +1917,16 @@
     </row>
     <row r="35" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="59" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -1957,16 +1941,16 @@
     </row>
     <row r="36" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="59" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -1981,16 +1965,16 @@
     </row>
     <row r="37" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="59" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -2005,13 +1989,13 @@
     </row>
     <row r="38" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" s="18"/>
       <c r="F38" s="15"/>
@@ -2200,143 +2184,123 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="13" customWidth="1"/>
-    <col min="2" max="3" width="11.5703125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="48" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="12" customWidth="1"/>
-    <col min="6" max="8" width="24.28515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="7" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.42578125" style="12"/>
+    <col min="2" max="2" width="11.5703125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="12" customWidth="1"/>
+    <col min="5" max="7" width="24.28515625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" s="57">
         <v>0</v>
       </c>
-      <c r="C4" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C4" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B5" s="57">
         <v>1</v>
       </c>
-      <c r="C5" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C5" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" s="57">
         <v>888</v>
       </c>
-      <c r="C6" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C6" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
         <v>102</v>
       </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C9" s="50" t="s">
         <v>104</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="S1:S8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="R1:R8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2373,13 +2337,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/RBDstandardized_questionnaire_MAD_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaire_MAD_FR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE1E96C-A5E2-4E62-B27F-004D52FF751D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82032072-35C6-4FC9-A5C3-F07295F3BADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$R$1:$R$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$T$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$T$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="119">
   <si>
     <t>type</t>
   </si>
@@ -282,21 +282,6 @@
     <t>Au fur et à mesure que le répondant se rappelle et énumère les aliments consommés par l'enfant, encerclez "oui" dans les groupes alimentaires correspondants ci-dessous</t>
   </si>
   <si>
-    <t>Quel est le nombre total d'enfants âgés de 6 à 23 mois dans votre menage ?</t>
-  </si>
-  <si>
-    <t>HHSizeMm623</t>
-  </si>
-  <si>
-    <t>HHSizeMm623_MAD</t>
-  </si>
-  <si>
-    <t>${HHSizeMm623_MAD}&gt;0</t>
-  </si>
-  <si>
-    <t>${HHSizeMm623_MAD}</t>
-  </si>
-  <si>
     <t>PCMAD_childnumber</t>
   </si>
   <si>
@@ -343,9 +328,6 @@
   </si>
   <si>
     <t>MAD_sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nous aimerions maintenant poser des questions aux mères ou aux personnes en charge des ${HHSizeMm623} enfants de moins de 2 menage, pour combien d'enfants la mère ou la personne en charge est-elle disponible pour répondre à certaines questions sur le régime alimentaire des enfants ? </t>
   </si>
   <si>
     <t>Sex</t>
@@ -410,6 +392,18 @@
   </si>
   <si>
     <t>Sexe de ${MAD_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous aimerions maintenant poser des questions aux mères ou aux personnes en charge des ${HHSize23Tot} enfants de moins de 2 menage, pour combien d'enfants la mère ou la personne en charge est-elle disponible pour répondre à certaines questions sur le régime alimentaire des enfants ? </t>
+  </si>
+  <si>
+    <t>HHSize623_MAD</t>
+  </si>
+  <si>
+    <t>${HHSize623_MAD}&gt;0</t>
+  </si>
+  <si>
+    <t>${HHSize623_MAD}</t>
   </si>
 </sst>
 </file>
@@ -419,7 +413,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,13 +548,6 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF292929"/>
-      <name val="Open Sans"/>
       <family val="2"/>
     </font>
     <font>
@@ -659,7 +646,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
@@ -784,26 +771,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1127,11 +1107,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T171"/>
+  <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,10 +1161,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>32</v>
@@ -1226,101 +1206,109 @@
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:20" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>78</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="T5" s="10"/>
-    </row>
-    <row r="6" spans="1:20" s="34" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+    <row r="5" spans="1:20" s="34" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="B5" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="O7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="L8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="O8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="24"/>
-    </row>
-    <row r="9" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="B9" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>114</v>
       </c>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
@@ -1334,153 +1322,153 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="18"/>
+        <v>81</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>100</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="L10" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="L10" s="19"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="J11" s="15"/>
-      <c r="L11" s="19"/>
+      <c r="L11" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:20" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>101</v>
       </c>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="L12" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="L12" s="19"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" spans="1:20" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:20" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="L13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+    </row>
+    <row r="14" spans="1:20" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="L13" s="19"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-    </row>
-    <row r="14" spans="1:20" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
+      <c r="D14" s="18"/>
+      <c r="F14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
       <c r="L14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-    </row>
-    <row r="15" spans="1:20" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>18</v>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="D15" s="18"/>
-      <c r="F15" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="F15" s="32"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="L15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-    </row>
-    <row r="16" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="32"/>
+      <c r="L15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>73</v>
       </c>
       <c r="D16" s="18"/>
       <c r="F16" s="32"/>
@@ -1499,10 +1487,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>73</v>
+        <v>37</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>72</v>
       </c>
       <c r="D17" s="18"/>
       <c r="F17" s="32"/>
@@ -1521,10 +1509,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="18"/>
       <c r="F18" s="32"/>
@@ -1538,83 +1526,85 @@
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>71</v>
-      </c>
+    <row r="19" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="18"/>
-      <c r="F19" s="32"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="32"/>
-      <c r="L19" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="15"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="15"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+    </row>
+    <row r="20" spans="1:16" s="49" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="15"/>
-      <c r="N20" s="29"/>
+      <c r="L20" s="19"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
     </row>
-    <row r="21" spans="1:16" s="49" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>18</v>
+    <row r="21" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>21</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
-      <c r="L21" s="19"/>
+      <c r="L21" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
     </row>
     <row r="22" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>116</v>
+        <v>40</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -1629,16 +1619,16 @@
     </row>
     <row r="23" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>116</v>
+        <v>44</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -1653,16 +1643,16 @@
     </row>
     <row r="24" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>116</v>
+        <v>46</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1677,16 +1667,16 @@
     </row>
     <row r="25" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>116</v>
+        <v>47</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1701,16 +1691,16 @@
     </row>
     <row r="26" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>116</v>
+        <v>62</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -1725,16 +1715,16 @@
     </row>
     <row r="27" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>116</v>
+        <v>63</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -1749,16 +1739,16 @@
     </row>
     <row r="28" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>116</v>
+        <v>64</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -1773,16 +1763,16 @@
     </row>
     <row r="29" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>116</v>
+        <v>65</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -1797,16 +1787,16 @@
     </row>
     <row r="30" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>116</v>
+        <v>66</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -1819,18 +1809,18 @@
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
     </row>
-    <row r="31" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="49" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>116</v>
+        <v>67</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -1845,16 +1835,16 @@
     </row>
     <row r="32" spans="1:16" s="49" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>116</v>
+        <v>56</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -1867,18 +1857,18 @@
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
     </row>
-    <row r="33" spans="1:16" s="49" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>116</v>
+        <v>57</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -1893,16 +1883,16 @@
     </row>
     <row r="34" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -1917,16 +1907,16 @@
     </row>
     <row r="35" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="58" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -1941,16 +1931,16 @@
     </row>
     <row r="36" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -1965,17 +1955,15 @@
     </row>
     <row r="37" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="58" t="s">
-        <v>116</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D37" s="18"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -1988,193 +1976,171 @@
       <c r="P37" s="15"/>
     </row>
     <row r="38" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>70</v>
-      </c>
+      <c r="A38" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="18"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
-      <c r="L38" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="L38" s="19"/>
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
     </row>
-    <row r="39" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="18"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="L39" s="19"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-    </row>
-    <row r="40" spans="1:16" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+    <row r="39" spans="1:16" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-    </row>
-    <row r="41" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+    </row>
+    <row r="40" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:16" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:16" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:16" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:16" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="53" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="54" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="56" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="57" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="60" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="63" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="64" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="70" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="72" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="74" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="75" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="77" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="81" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="82" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="83" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="84" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="85" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="88" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="91" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="92" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="95" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="96" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="100" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="101" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="102" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="103" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="106" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="107" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="109" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="110" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="111" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="112" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="113" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="116" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="119" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="120" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="123" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="124" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="126" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="128" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="129" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="130" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="131" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="135" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="137" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="138" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="139" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="140" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="141" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="144" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="147" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="148" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="151" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="152" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="154" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="156" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="157" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="158" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="159" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="165" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="166" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="11" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="169" s="11" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="170" s="11" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="11" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A1:T4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2238,38 +2204,38 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="57">
+      <c r="A4" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="54">
         <v>0</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>111</v>
+      <c r="C4" s="53" t="s">
+        <v>105</v>
       </c>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="57">
+      <c r="A5" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="54">
         <v>1</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>112</v>
+      <c r="C5" s="53" t="s">
+        <v>106</v>
       </c>
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="57">
+      <c r="A6" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="54">
         <v>888</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>113</v>
+      <c r="C6" s="53" t="s">
+        <v>107</v>
       </c>
       <c r="R6" s="4"/>
     </row>
@@ -2278,24 +2244,24 @@
     </row>
     <row r="8" spans="1:18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2337,13 +2303,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/RBDstandardized_questionnaire_MAD_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaire_MAD_FR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82032072-35C6-4FC9-A5C3-F07295F3BADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BF4FE5-5358-4640-9A00-1802A5758D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1109,7 +1109,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>

--- a/questionnaires/RBDstandardized_questionnaire_MAD_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaire_MAD_FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BF4FE5-5358-4640-9A00-1802A5758D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6E1DF8-D656-4E57-B47B-B68C0600E111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="2" r:id="rId1"/>
@@ -1109,7 +1109,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
@@ -2152,7 +2152,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>

--- a/questionnaires/RBDstandardized_questionnaire_MAD_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaire_MAD_FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6E1DF8-D656-4E57-B47B-B68C0600E111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BECFB2D-08D1-452E-AC92-63307BDF36B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="2" r:id="rId1"/>
@@ -1109,9 +1109,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="37" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>61</v>
@@ -2152,7 +2152,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>

--- a/questionnaires/RBDstandardized_questionnaire_MAD_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaire_MAD_FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BECFB2D-08D1-452E-AC92-63307BDF36B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764359BC-CFB7-4834-B584-D001FB46AA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="2" r:id="rId1"/>
@@ -315,9 +315,6 @@
     <t>standardized_MADquestionnaire</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -404,6 +401,9 @@
   </si>
   <si>
     <t>${HHSize623_MAD}</t>
+  </si>
+  <si>
+    <t>Francais</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1109,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
@@ -1208,7 +1208,7 @@
     <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -1219,13 +1219,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -1245,17 +1245,17 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,13 +1302,13 @@
     </row>
     <row r="9" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
@@ -1333,7 +1333,7 @@
         <v>82</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -1374,13 +1374,13 @@
     </row>
     <row r="12" spans="1:20" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="13" spans="1:20" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="39"/>
       <c r="F13" s="37"/>
@@ -1419,10 +1419,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="18"/>
       <c r="F14" s="15" t="s">
@@ -1553,7 +1553,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>77</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="21" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>42</v>
@@ -1580,7 +1580,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="22" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>41</v>
@@ -1604,7 +1604,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="23" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>43</v>
@@ -1628,7 +1628,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="24" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>46</v>
@@ -1652,7 +1652,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="25" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>48</v>
@@ -1676,7 +1676,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="26" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>49</v>
@@ -1700,7 +1700,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="27" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>50</v>
@@ -1724,7 +1724,7 @@
         <v>63</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="28" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>51</v>
@@ -1748,7 +1748,7 @@
         <v>64</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="29" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>52</v>
@@ -1772,7 +1772,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="30" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>54</v>
@@ -1796,7 +1796,7 @@
         <v>66</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="31" spans="1:16" s="49" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>55</v>
@@ -1820,7 +1820,7 @@
         <v>67</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="32" spans="1:16" s="49" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>56</v>
@@ -1844,7 +1844,7 @@
         <v>68</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="33" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>57</v>
@@ -1868,7 +1868,7 @@
         <v>69</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -1883,16 +1883,16 @@
     </row>
     <row r="34" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -1907,16 +1907,16 @@
     </row>
     <row r="35" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -1931,16 +1931,16 @@
     </row>
     <row r="36" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -2205,37 +2205,37 @@
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="54">
         <v>0</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="54">
         <v>1</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="54">
         <v>888</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R6" s="4"/>
     </row>
@@ -2244,24 +2244,24 @@
     </row>
     <row r="8" spans="1:18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
       <c r="C8" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2278,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2309,7 +2309,7 @@
         <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
